--- a/transportschip itereren/Antwoordenblad_MT1463_1466_V06.xlsx
+++ b/transportschip itereren/Antwoordenblad_MT1463_1466_V06.xlsx
@@ -999,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D8" s="10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="28.8" customHeight="1">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91%</t>
+          <t xml:space="preserve"> 62%</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="D12" s="22" t="n">
-        <v>470550.3126380809</v>
+        <v>301369.9088489864</v>
       </c>
     </row>
     <row r="13" ht="35.4" customHeight="1">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>3.100992589961451</v>
+        <v>4.033405289661494</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>23.976</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>14.988</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>7.988</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D36" s="23" t="n">
-        <v>-240358422.507975</v>
+        <v>-93166929.935775</v>
       </c>
     </row>
     <row r="37">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>70.91120726548422</v>
+        <v>42.79334136761143</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>-0.0004327642678354389</v>
+        <v>0.0003609063815083693</v>
       </c>
     </row>
     <row r="39">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.104063194937617</v>
+        <v>7.19175311363841</v>
       </c>
     </row>
     <row r="41">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>240358422.507975</v>
+        <v>93166929.935775</v>
       </c>
     </row>
     <row r="44">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>70.8839</v>
+        <v>42.8065</v>
       </c>
     </row>
     <row r="45">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="D46" s="7" t="n">
-        <v>4.2096</v>
+        <v>3.3526</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D49" s="7" t="n">
-        <v>-2.980232238769531e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-6563531.254794854</v>
+        <v>1225949.38179691</v>
       </c>
     </row>
     <row r="51">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>104018.5367347449</v>
+        <v>-33624.53955936432</v>
       </c>
     </row>
     <row r="52" ht="40.8" customHeight="1">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>-2256300</v>
+        <v>-52929855</v>
       </c>
     </row>
     <row r="57" ht="14.4" customHeight="1">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" ht="14.4" customHeight="1">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="31.8" customHeight="1">
@@ -2567,9 +2567,9 @@
   </mergeCells>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="8"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/transportschip itereren/Antwoordenblad_MT1463_1466_V06.xlsx
+++ b/transportschip itereren/Antwoordenblad_MT1463_1466_V06.xlsx
@@ -999,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62%</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1150,8 +1150,10 @@
           <t>[kN]</t>
         </is>
       </c>
-      <c r="D12" s="22" t="n">
-        <v>301369.9088489864</v>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>300233.09248847386</t>
+        </is>
       </c>
     </row>
     <row r="13" ht="35.4" customHeight="1">
@@ -1200,7 +1202,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>4.033405289661494</v>
+        <v>3.723703065353303</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1704,7 +1706,7 @@
         </is>
       </c>
       <c r="D55" s="7" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="14.4" customHeight="1">
@@ -1734,7 +1736,7 @@
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" ht="14.4" customHeight="1">
@@ -2567,9 +2569,9 @@
   </mergeCells>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="8"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>